--- a/data-raw/Arctic_Cod_RV_Survey-Dec-2017.xlsx
+++ b/data-raw/Arctic_Cod_RV_Survey-Dec-2017.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="18195" windowHeight="12075"/>
+    <workbookView xWindow="480" yWindow="36" windowWidth="18192" windowHeight="12072"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Row Labels</t>
   </si>
@@ -34,6 +34,9 @@
   </si>
   <si>
     <t>2J3KL Fall Survey (core strata only)</t>
+  </si>
+  <si>
+    <t>Dara from MKA</t>
   </si>
 </sst>
 </file>
@@ -372,26 +375,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C39"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -402,7 +415,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1981</v>
       </c>
@@ -413,7 +426,7 @@
         <v>3934.6986613762256</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1982</v>
       </c>
@@ -424,7 +437,7 @@
         <v>3059.6677490073243</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1983</v>
       </c>
@@ -435,7 +448,7 @@
         <v>5216.8257750550401</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1984</v>
       </c>
@@ -446,7 +459,7 @@
         <v>4014.7456585940854</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1985</v>
       </c>
@@ -457,7 +470,7 @@
         <v>14202.158355583173</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1986</v>
       </c>
@@ -468,7 +481,7 @@
         <v>2967.6918764722222</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1987</v>
       </c>
@@ -479,7 +492,7 @@
         <v>2691.0055663863805</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1988</v>
       </c>
@@ -490,7 +503,7 @@
         <v>7842.4700106197688</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1989</v>
       </c>
@@ -501,7 +514,7 @@
         <v>10643.949905275025</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1990</v>
       </c>
@@ -512,7 +525,7 @@
         <v>3490.3917472137741</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1991</v>
       </c>
@@ -523,7 +536,7 @@
         <v>5253.2539969727213</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1992</v>
       </c>
@@ -534,7 +547,7 @@
         <v>8904.5706009975765</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1993</v>
       </c>
@@ -809,7 +822,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -821,7 +834,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
